--- a/data/exel-docs/barcha-kitoblar.xlsx
+++ b/data/exel-docs/barcha-kitoblar.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,118 +419,109 @@
         <v>codes</v>
       </c>
       <c r="F1" t="str">
+        <v>file</v>
+      </c>
+      <c r="G1" t="str">
         <v>addedAt</v>
-      </c>
-      <c r="G1" t="str">
-        <v>amount</v>
-      </c>
-      <c r="H1" t="str">
-        <v>id</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Менинг кушним миллионер</v>
+        <v>File bln kitob</v>
       </c>
       <c r="B2" t="str">
-        <v>Уильям Д.Данко</v>
+        <v>Izzattillakhodza</v>
       </c>
       <c r="C2">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="D2">
-        <v>416</v>
+        <v>231</v>
       </c>
       <c r="F2" t="str">
-        <v>2022-12-05T15:08:26.200Z</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
+        <v>File bln kitob-1670681303196.pdf</v>
+      </c>
+      <c r="G2" t="str">
+        <v>2022-12-10T14:00:01.629Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Garry Potter</v>
+        <v>Hayot Maktabi</v>
       </c>
       <c r="B3" t="str">
-        <v>J K</v>
+        <v>Izzat</v>
       </c>
       <c r="C3">
-        <v>1990</v>
+        <v>2022</v>
       </c>
       <c r="D3">
-        <v>320</v>
+        <v>211</v>
       </c>
       <c r="F3" t="str">
-        <v>2022-12-05T15:08:26.203Z</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
+        <v>Hayot Maktabi-1670681209513.pdf</v>
+      </c>
+      <c r="G3" t="str">
+        <v>2022-12-09T21:12:07.689Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>O'tkan kunlar</v>
+        <v>Test</v>
       </c>
       <c r="B4" t="str">
-        <v>O'tkir Xoshimov</v>
+        <v>Izzat</v>
       </c>
       <c r="C4">
-        <v>1989</v>
+        <v>2022</v>
       </c>
       <c r="D4">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="F4" t="str">
-        <v>2022-12-05T15:08:26.204Z</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
+        <v>Test-1670681440211.pdf</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2022-12-09T21:10:34.852Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Bog'irsoq</v>
+        <v>Komputerlar asosi 11</v>
       </c>
       <c r="B5" t="str">
-        <v>Halq</v>
+        <v>Xudoyberdi To'xtaboyev</v>
       </c>
       <c r="C5">
-        <v>1950</v>
+        <v>2012</v>
       </c>
       <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="F5" t="str">
-        <v>2022-12-05T15:08:26.207Z</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
+        <v>308</v>
+      </c>
+      <c r="G5" t="str">
+        <v>2022-12-07T14:37:00.814Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Maugli</v>
+        <v>Komputerlar asosi 10</v>
       </c>
       <c r="B6" t="str">
-        <v>Abdusamad</v>
+        <v>Xudoyberdi To'xtaboyev</v>
       </c>
       <c r="C6">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D6">
-        <v>120</v>
-      </c>
-      <c r="F6" t="str">
-        <v>2022-12-05T15:19:36.839Z</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
+        <v>308</v>
+      </c>
+      <c r="G6" t="str">
+        <v>2022-12-07T14:35:27.654Z</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Mungli ko'zlar</v>
+        <v>Komputerlar asosi 9</v>
       </c>
       <c r="B7" t="str">
         <v>Xudoyberdi To'xtaboyev</v>
@@ -539,18 +530,15 @@
         <v>2012</v>
       </c>
       <c r="D7">
-        <v>312</v>
-      </c>
-      <c r="F7" t="str">
-        <v>2022-12-05T15:22:38.096Z</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
+        <v>308</v>
+      </c>
+      <c r="G7" t="str">
+        <v>2022-12-07T14:34:08.633Z</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Mungli Ko'zlar</v>
+        <v>Komputerlar asosi 8</v>
       </c>
       <c r="B8" t="str">
         <v>Xudoyberdi To'xtaboyev</v>
@@ -561,151 +549,127 @@
       <c r="D8">
         <v>308</v>
       </c>
-      <c r="F8" t="str">
-        <v>2022-12-06T18:36:23.835Z</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
+      <c r="G8" t="str">
+        <v>2022-12-07T14:32:15.951Z</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Daydi qizning daftari</v>
+        <v>Komputerlar asosi 7</v>
       </c>
       <c r="B9" t="str">
-        <v>Qahhor Solih</v>
+        <v>Xudoyberdi To'xtaboyev</v>
       </c>
       <c r="C9">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="D9">
-        <v>200</v>
-      </c>
-      <c r="F9" t="str">
-        <v>2022-12-06T18:40:55.878Z</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
+        <v>308</v>
+      </c>
+      <c r="G9" t="str">
+        <v>2022-12-07T14:29:06.474Z</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Ikki eshik orasi</v>
+        <v>Komputerlar asosi 6</v>
       </c>
       <c r="B10" t="str">
-        <v>O'tkir Hoshimov</v>
+        <v>Xudoyberdi To'xtaboyev</v>
       </c>
       <c r="C10">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D10">
-        <v>320</v>
-      </c>
-      <c r="F10" t="str">
-        <v>2022-12-06T18:42:11.461Z</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
+        <v>308</v>
+      </c>
+      <c r="G10" t="str">
+        <v>2022-12-07T14:27:38.027Z</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Temur tuzuklari</v>
+        <v>Komputerlar asosi 5</v>
       </c>
       <c r="B11" t="str">
-        <v>Bobobekov Haydarbek</v>
+        <v>Xudoyberdi To'xtaboyev</v>
       </c>
       <c r="C11">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D11">
-        <v>230</v>
-      </c>
-      <c r="F11" t="str">
-        <v>2022-12-06T18:42:55.227Z</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
+        <v>308</v>
+      </c>
+      <c r="G11" t="str">
+        <v>2022-12-07T14:18:40.989Z</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Komputerlar asosi</v>
+        <v>Doktor House</v>
       </c>
       <c r="B12" t="str">
-        <v>Xudoyberdi To'xtaboyev</v>
+        <v>Doktor House</v>
       </c>
       <c r="C12">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="D12">
-        <v>308</v>
-      </c>
-      <c r="F12" t="str">
-        <v>2022-12-07T12:17:00.136Z</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
+        <v>210</v>
+      </c>
+      <c r="G12" t="str">
+        <v>2022-12-07T12:56:44.142Z</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Komputerlar asosi 2</v>
+        <v>Alisaning sarguzashtlari</v>
       </c>
       <c r="B13" t="str">
-        <v>Xudoyberdi To'xtaboyev</v>
+        <v>Alisa Watson</v>
       </c>
       <c r="C13">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="D13">
-        <v>308</v>
-      </c>
-      <c r="F13" t="str">
-        <v>2022-12-07T12:18:20.229Z</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="G13" t="str">
+        <v>2022-12-07T12:53:25.700Z</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Komputerlar asosi 3</v>
+        <v>Uzun quloq piter</v>
       </c>
       <c r="B14" t="str">
-        <v>Xudoyberdi To'xtaboyev</v>
+        <v>Piter Parker</v>
       </c>
       <c r="C14">
         <v>2012</v>
       </c>
       <c r="D14">
-        <v>308</v>
-      </c>
-      <c r="F14" t="str">
-        <v>2022-12-07T12:19:12.940Z</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
+        <v>120</v>
+      </c>
+      <c r="G14" t="str">
+        <v>2022-12-07T12:49:47.985Z</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Komputerlar asosi 4</v>
+        <v>Yolg'onlar saltanati</v>
       </c>
       <c r="B15" t="str">
-        <v>Xudoyberdi To'xtaboyev</v>
+        <v>Umar Hayyom</v>
       </c>
       <c r="C15">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D15">
-        <v>308</v>
-      </c>
-      <c r="F15" t="str">
-        <v>2022-12-07T12:24:49.109Z</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
+        <v>340</v>
+      </c>
+      <c r="G15" t="str">
+        <v>2022-12-07T12:40:58.789Z</v>
       </c>
     </row>
     <row r="16">
@@ -721,156 +685,132 @@
       <c r="D16">
         <v>320</v>
       </c>
-      <c r="F16" t="str">
+      <c r="G16" t="str">
         <v>2022-12-07T12:28:55.268Z</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Yolg'onlar saltanati</v>
+        <v>Komputerlar asosi 4</v>
       </c>
       <c r="B17" t="str">
-        <v>Umar Hayyom</v>
+        <v>Xudoyberdi To'xtaboyev</v>
       </c>
       <c r="C17">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D17">
-        <v>340</v>
-      </c>
-      <c r="F17" t="str">
-        <v>2022-12-07T12:40:58.789Z</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
+        <v>308</v>
+      </c>
+      <c r="G17" t="str">
+        <v>2022-12-07T12:24:49.109Z</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Uzun quloq piter</v>
+        <v>Komputerlar asosi 3</v>
       </c>
       <c r="B18" t="str">
-        <v>Piter Parker</v>
+        <v>Xudoyberdi To'xtaboyev</v>
       </c>
       <c r="C18">
         <v>2012</v>
       </c>
       <c r="D18">
-        <v>120</v>
-      </c>
-      <c r="F18" t="str">
-        <v>2022-12-07T12:49:47.985Z</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
+        <v>308</v>
+      </c>
+      <c r="G18" t="str">
+        <v>2022-12-07T12:19:12.940Z</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Alisaning sarguzashtlari</v>
+        <v>Komputerlar asosi 2</v>
       </c>
       <c r="B19" t="str">
-        <v>Alisa Watson</v>
+        <v>Xudoyberdi To'xtaboyev</v>
       </c>
       <c r="C19">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="D19">
-        <v>300</v>
-      </c>
-      <c r="F19" t="str">
-        <v>2022-12-07T12:53:25.700Z</v>
-      </c>
-      <c r="G19">
-        <v>7</v>
+        <v>308</v>
+      </c>
+      <c r="G19" t="str">
+        <v>2022-12-07T12:18:20.229Z</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Doktor House</v>
+        <v>Komputerlar asosi</v>
       </c>
       <c r="B20" t="str">
-        <v>Doktor House</v>
+        <v>Xudoyberdi To'xtaboyev</v>
       </c>
       <c r="C20">
-        <v>2001</v>
+        <v>2012</v>
       </c>
       <c r="D20">
-        <v>210</v>
-      </c>
-      <c r="F20" t="str">
-        <v>2022-12-07T12:56:44.142Z</v>
-      </c>
-      <c r="G20">
-        <v>6</v>
+        <v>308</v>
+      </c>
+      <c r="G20" t="str">
+        <v>2022-12-07T12:17:00.136Z</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Komputerlar asosi 5</v>
+        <v>Temur tuzuklari</v>
       </c>
       <c r="B21" t="str">
-        <v>Xudoyberdi To'xtaboyev</v>
+        <v>Bobobekov Haydarbek</v>
       </c>
       <c r="C21">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D21">
-        <v>308</v>
-      </c>
-      <c r="F21" t="str">
-        <v>2022-12-07T14:18:40.989Z</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
+        <v>230</v>
+      </c>
+      <c r="G21" t="str">
+        <v>2022-12-06T18:42:55.227Z</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Komputerlar asosi 6</v>
+        <v>Ikki eshik orasi</v>
       </c>
       <c r="B22" t="str">
-        <v>Xudoyberdi To'xtaboyev</v>
+        <v>O'tkir Hoshimov</v>
       </c>
       <c r="C22">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D22">
-        <v>308</v>
-      </c>
-      <c r="F22" t="str">
-        <v>2022-12-07T14:27:38.027Z</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
+        <v>320</v>
+      </c>
+      <c r="G22" t="str">
+        <v>2022-12-06T18:42:11.461Z</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Komputerlar asosi 7</v>
+        <v>Daydi qizning daftari</v>
       </c>
       <c r="B23" t="str">
-        <v>Xudoyberdi To'xtaboyev</v>
+        <v>Qahhor Solih</v>
       </c>
       <c r="C23">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="D23">
-        <v>308</v>
-      </c>
-      <c r="F23" t="str">
-        <v>2022-12-07T14:29:06.474Z</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="G23" t="str">
+        <v>2022-12-06T18:40:55.878Z</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Komputerlar asosi 8</v>
+        <v>Mungli Ko'zlar</v>
       </c>
       <c r="B24" t="str">
         <v>Xudoyberdi To'xtaboyev</v>
@@ -881,16 +821,13 @@
       <c r="D24">
         <v>308</v>
       </c>
-      <c r="F24" t="str">
-        <v>2022-12-07T14:32:15.951Z</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
+      <c r="G24" t="str">
+        <v>2022-12-06T18:36:23.835Z</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Komputerlar asosi 9</v>
+        <v>Mungli ko'zlar</v>
       </c>
       <c r="B25" t="str">
         <v>Xudoyberdi To'xtaboyev</v>
@@ -899,58 +836,112 @@
         <v>2012</v>
       </c>
       <c r="D25">
-        <v>308</v>
-      </c>
-      <c r="F25" t="str">
-        <v>2022-12-07T14:34:08.633Z</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
+        <v>312</v>
+      </c>
+      <c r="G25" t="str">
+        <v>2022-12-05T15:22:38.096Z</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Komputerlar asosi 10</v>
+        <v>Maugli</v>
       </c>
       <c r="B26" t="str">
-        <v>Xudoyberdi To'xtaboyev</v>
+        <v>Abdusamad</v>
       </c>
       <c r="C26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="D26">
-        <v>308</v>
-      </c>
-      <c r="F26" t="str">
-        <v>2022-12-07T14:35:27.654Z</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
+        <v>120</v>
+      </c>
+      <c r="G26" t="str">
+        <v>2022-12-05T15:19:36.839Z</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Komputerlar asosi 11</v>
+        <v>Bog'irsoq</v>
       </c>
       <c r="B27" t="str">
-        <v>Xudoyberdi To'xtaboyev</v>
+        <v>Halq</v>
       </c>
       <c r="C27">
-        <v>2012</v>
+        <v>1950</v>
       </c>
       <c r="D27">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c r="F27" t="str">
-        <v>2022-12-07T14:37:00.814Z</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
+        <v>Bog'irsoq-6389c809666ce69a7f92ffac.pdf</v>
+      </c>
+      <c r="G27" t="str">
+        <v>2022-12-05T15:08:26.207Z</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>O'tkan kunlar</v>
+      </c>
+      <c r="B28" t="str">
+        <v>O'tkir Xoshimov</v>
+      </c>
+      <c r="C28">
+        <v>1989</v>
+      </c>
+      <c r="D28">
+        <v>152</v>
+      </c>
+      <c r="F28" t="str">
+        <v>O'tkan kunlar-6389c809666ce69a7f92ffab.pdf</v>
+      </c>
+      <c r="G28" t="str">
+        <v>2022-12-05T15:08:26.204Z</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Garry Potter</v>
+      </c>
+      <c r="B29" t="str">
+        <v>J K</v>
+      </c>
+      <c r="C29">
+        <v>1990</v>
+      </c>
+      <c r="D29">
+        <v>320</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Garry Potter-6389c809666ce69a7f92ffaa.pdf</v>
+      </c>
+      <c r="G29" t="str">
+        <v>2022-12-05T15:08:26.203Z</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Менинг кушним миллионер</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Уильям Д.Данко</v>
+      </c>
+      <c r="C30">
+        <v>2021</v>
+      </c>
+      <c r="D30">
+        <v>416</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Менинг кушним миллионер-6389c809666ce69a7f92ffa9.pdf</v>
+      </c>
+      <c r="G30" t="str">
+        <v>2022-12-05T15:08:26.200Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H27"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G30"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/exel-docs/barcha-kitoblar.xlsx
+++ b/data/exel-docs/barcha-kitoblar.xlsx
@@ -416,25 +416,25 @@
         <v>pages</v>
       </c>
       <c r="E1" t="str">
+        <v>cd_disk</v>
+      </c>
+      <c r="F1" t="str">
+        <v>codes</v>
+      </c>
+      <c r="G1" t="str">
+        <v>get_options</v>
+      </c>
+      <c r="H1" t="str">
+        <v>price</v>
+      </c>
+      <c r="I1" t="str">
+        <v>lang</v>
+      </c>
+      <c r="J1" t="str">
+        <v>addedAt</v>
+      </c>
+      <c r="K1" t="str">
         <v>category</v>
-      </c>
-      <c r="F1" t="str">
-        <v>cd_disk</v>
-      </c>
-      <c r="G1" t="str">
-        <v>codes</v>
-      </c>
-      <c r="H1" t="str">
-        <v>get_options</v>
-      </c>
-      <c r="I1" t="str">
-        <v>price</v>
-      </c>
-      <c r="J1" t="str">
-        <v>lang</v>
-      </c>
-      <c r="K1" t="str">
-        <v>addedAt</v>
       </c>
       <c r="L1" t="str">
         <v>file</v>
@@ -453,26 +453,20 @@
       <c r="D2">
         <v>15</v>
       </c>
-      <c r="E2" t="str">
-        <v>Aniqlanmagan</v>
-      </c>
-      <c r="F2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="H2" t="str">
+      <c r="G2" t="str">
         <v>Ajou</v>
       </c>
-      <c r="I2">
+      <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2" t="str">
+        <v>aniqlanmagan</v>
+      </c>
       <c r="J2" t="str">
-        <v>aniqlanmagan</v>
-      </c>
-      <c r="K2" t="str">
-        <v>2022-12-14T12:51:08.661Z</v>
-      </c>
-      <c r="L2" t="str">
-        <v>Bog'irsoq.pdf</v>
+        <v>2023-01-24T05:27:53.244Z</v>
       </c>
     </row>
     <row r="3">
@@ -488,26 +482,23 @@
       <c r="D3">
         <v>152</v>
       </c>
-      <c r="E3" t="str">
-        <v>Ingilizcha</v>
-      </c>
-      <c r="F3" t="b">
+      <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="str">
+      <c r="G3" t="str">
         <v>Ajou</v>
       </c>
-      <c r="I3">
+      <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3" t="str">
+        <v>russian</v>
+      </c>
       <c r="J3" t="str">
-        <v>russian</v>
+        <v>2023-01-24T05:27:53.242Z</v>
       </c>
       <c r="K3" t="str">
-        <v>2022-12-14T12:51:08.659Z</v>
-      </c>
-      <c r="L3" t="str">
-        <v>O'tkan kunlar.pdf</v>
+        <v>Fantastik</v>
       </c>
     </row>
     <row r="4">
@@ -523,23 +514,23 @@
       <c r="D4">
         <v>320</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
+      </c>
+      <c r="I4" t="str">
+        <v>uzbek</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2023-01-24T05:27:53.240Z</v>
+      </c>
+      <c r="K4" t="str">
         <v>Badiiy</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Ajou</v>
-      </c>
-      <c r="I4">
-        <v>300</v>
-      </c>
-      <c r="J4" t="str">
-        <v>uzbek</v>
-      </c>
-      <c r="K4" t="str">
-        <v>2022-12-14T12:51:08.658Z</v>
       </c>
       <c r="L4" t="str">
         <v>Garry Potter.pdf</v>
@@ -558,26 +549,23 @@
       <c r="D5">
         <v>416</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Korea</v>
+      </c>
+      <c r="H5">
+        <v>900</v>
+      </c>
+      <c r="I5" t="str">
+        <v>korean</v>
+      </c>
+      <c r="J5" t="str">
+        <v>2023-01-24T05:27:53.237Z</v>
+      </c>
+      <c r="K5" t="str">
         <v>Ilmiy</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Korea</v>
-      </c>
-      <c r="I5">
-        <v>900</v>
-      </c>
-      <c r="J5" t="str">
-        <v>korean</v>
-      </c>
-      <c r="K5" t="str">
-        <v>2022-12-14T12:51:08.654Z</v>
-      </c>
-      <c r="L5" t="str">
-        <v>Менинг кушним миллионер.pdf</v>
       </c>
     </row>
   </sheetData>

--- a/data/exel-docs/barcha-kitoblar.xlsx
+++ b/data/exel-docs/barcha-kitoblar.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,161 +416,3011 @@
         <v>pages</v>
       </c>
       <c r="E1" t="str">
+        <v>category</v>
+      </c>
+      <c r="F1" t="str">
         <v>cd_disk</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>codes</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
+        <v>uniqueId</v>
+      </c>
+      <c r="I1" t="str">
         <v>get_options</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>price</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>lang</v>
       </c>
-      <c r="J1" t="str">
+      <c r="L1" t="str">
         <v>addedAt</v>
       </c>
-      <c r="K1" t="str">
-        <v>category</v>
-      </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>file</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Bog'irsoq</v>
+        <v>Rim ertaklari (ertaklar to'plami)</v>
       </c>
       <c r="B2" t="str">
-        <v>Halq</v>
-      </c>
-      <c r="C2">
-        <v>1950</v>
+        <v>Janni Rodari</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2012</v>
       </c>
       <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2" t="b">
+        <v>320</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Ertak</v>
+      </c>
+      <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>Ajou</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>B-000273,B-000272,B-000271,B-000276,B-000274</v>
+      </c>
+      <c r="H2" t="str">
+        <v>a10b20c30</v>
       </c>
       <c r="I2" t="str">
-        <v>aniqlanmagan</v>
-      </c>
-      <c r="J2" t="str">
-        <v>2023-01-24T05:27:53.244Z</v>
+        <v>Ajou universiteti</v>
+      </c>
+      <c r="J2">
+        <v>20000</v>
+      </c>
+      <c r="K2" t="str">
+        <v>uzbek</v>
+      </c>
+      <c r="L2" t="str">
+        <v>2023-02-06T14:33:28.543Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>O'tkan kunlar</v>
+        <v>Баҳорнинг энг сўнгги лоласи</v>
       </c>
       <c r="B3" t="str">
-        <v>O'tkir Xoshimov</v>
-      </c>
-      <c r="C3">
-        <v>1989</v>
+        <v>Муҳаммад Исмоил</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2006</v>
       </c>
       <c r="D3">
-        <v>152</v>
-      </c>
-      <c r="E3" t="b">
+        <v>251</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Badiiy</v>
+      </c>
+      <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>Ajou</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>B-00330,B-00329,B-00328,B-00327,B-00326,B-00325,B-00324</v>
+      </c>
+      <c r="H3" t="str">
+        <v>a11b20c30</v>
       </c>
       <c r="I3" t="str">
-        <v>russian</v>
-      </c>
-      <c r="J3" t="str">
-        <v>2023-01-24T05:27:53.242Z</v>
+        <v>Ajou universiteti</v>
+      </c>
+      <c r="J3">
+        <v>20000</v>
       </c>
       <c r="K3" t="str">
-        <v>Fantastik</v>
+        <v>uzbek</v>
+      </c>
+      <c r="L3" t="str">
+        <v>2023-02-06T14:33:28.542Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Garry Potter</v>
+        <v>Фарғона тонг отгунча</v>
       </c>
       <c r="B4" t="str">
-        <v>J K</v>
-      </c>
-      <c r="C4">
-        <v>1990</v>
+        <v>Мирзакалон Исмоилий</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2010</v>
       </c>
       <c r="D4">
-        <v>320</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
+        <v>455</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Badiiy</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>Ajou</v>
-      </c>
-      <c r="H4">
-        <v>300</v>
+        <v>B-00340,B-00339,B-00338,B-00337,B-00336,B-00335,B-00334,B-00333,B-00332</v>
+      </c>
+      <c r="H4" t="str">
+        <v>a12b20c30</v>
       </c>
       <c r="I4" t="str">
+        <v>Ajou university</v>
+      </c>
+      <c r="J4">
+        <v>20000</v>
+      </c>
+      <c r="K4" t="str">
         <v>uzbek</v>
       </c>
-      <c r="J4" t="str">
-        <v>2023-01-24T05:27:53.240Z</v>
-      </c>
-      <c r="K4" t="str">
-        <v>Badiiy</v>
-      </c>
       <c r="L4" t="str">
-        <v>Garry Potter.pdf</v>
+        <v>2023-02-06T14:33:28.542Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Менинг кушним миллионер</v>
+        <v>Xoldorxon</v>
       </c>
       <c r="B5" t="str">
-        <v>Уильям Д.Данко</v>
-      </c>
-      <c r="C5">
+        <v>Xalq og'zaki ijodi</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2019</v>
+      </c>
+      <c r="D5">
+        <v>525</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Badiiy</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <v>B-000191,B-000190,B-000189,B-000188,B-000187,B-000192</v>
+      </c>
+      <c r="H5" t="str">
+        <v>a14b20c30</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Ajou universiteti</v>
+      </c>
+      <c r="J5">
+        <v>20000</v>
+      </c>
+      <c r="K5" t="str">
+        <v>uzbek</v>
+      </c>
+      <c r="L5" t="str">
+        <v>2023-02-06T14:33:28.542Z</v>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Sarob</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Abdulla Qahhor</v>
+      </c>
+      <c r="C6" t="str">
         <v>2021</v>
       </c>
-      <c r="D5">
+      <c r="D6">
+        <v>302</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Badiiy</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <v>B-000014,B-000013,B-000012,B-000011,B-000010,B-000015</v>
+      </c>
+      <c r="H6" t="str">
+        <v>a15b20c30</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Ajou universiteti</v>
+      </c>
+      <c r="J6">
+        <v>20000</v>
+      </c>
+      <c r="K6" t="str">
+        <v>uzbek</v>
+      </c>
+      <c r="L6" t="str">
+        <v>2023-02-06T14:33:28.542Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Economics</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Daron Acemoglu. David Laibson, ..</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2016</v>
+      </c>
+      <c r="D7">
+        <v>788</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <v>CH-00259</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L7" t="str">
+        <v>2023-02-06T14:33:28.541Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>ESSENCE OF DECISION Explaining the Cuban Missile Crisis</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Graham Allison , Philip Zelikow</v>
+      </c>
+      <c r="C8" t="str">
+        <v>1999</v>
+      </c>
+      <c r="D8">
         <v>416</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
-        <v>Korea</v>
-      </c>
-      <c r="H5">
-        <v>900</v>
-      </c>
-      <c r="I5" t="str">
-        <v>korean</v>
-      </c>
-      <c r="J5" t="str">
-        <v>2023-01-24T05:27:53.237Z</v>
-      </c>
-      <c r="K5" t="str">
-        <v>Ilmiy</v>
+      <c r="E8" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <v>CH-00265</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L8" t="str">
+        <v>2023-02-06T14:33:28.541Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>1-2 GUG-EO GYOSAYONG JIDOSEO</v>
+      </c>
+      <c r="B9" t="str">
+        <v>1-2 ЧАСТЬ</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2000</v>
+      </c>
+      <c r="D9">
+        <v>440</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <v>CH-00481,CH-00482,CH-00483,CH-00484,CH-00485,CH-00486</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L9" t="str">
+        <v>2023-02-06T14:33:28.541Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>ROUTLEDGE ENCYCLOPEDIA OF TRANSLATION STUDIES</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Mona Baker.Gabriela Saldanha( 1998.2009.y)</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2011</v>
+      </c>
+      <c r="D10">
+        <v>674</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <v>CH-00233</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L10" t="str">
+        <v>2023-02-06T14:33:28.540Z</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>FRACTURE MECHANICS</v>
+      </c>
+      <c r="B11" t="str">
+        <v>T.L.ANDERSON</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1995</v>
+      </c>
+      <c r="D11">
+        <v>680</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <v>CH-00242</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L11" t="str">
+        <v>2023-02-06T14:33:28.540Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>SYSTEMS APPROACH TO COMPUTER-INTEGRATED DESIGN AND MANUFACTURING</v>
+      </c>
+      <c r="B12" t="str">
+        <v>NANUA SINGH</v>
+      </c>
+      <c r="C12" t="str">
+        <v>1996</v>
+      </c>
+      <c r="D12">
+        <v>643</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <v>CH-00255</v>
+      </c>
+      <c r="I12" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L12" t="str">
+        <v>2023-02-06T14:33:28.540Z</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>THE RETURN OF DEPRESSION ECONOMICS</v>
+      </c>
+      <c r="B13" t="str">
+        <v>PAUL KRUGMAN</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2009</v>
+      </c>
+      <c r="D13">
+        <v>191</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <v>CH-00270</v>
+      </c>
+      <c r="I13" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L13" t="str">
+        <v>2023-02-06T14:33:28.540Z</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>BUSINESS STATISTICS</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Douglas Downing,Ph.D., Jeffrey Clark, Ph.D.</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2010</v>
+      </c>
+      <c r="D14">
+        <v>540</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <v>CH-00256</v>
+      </c>
+      <c r="I14" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L14" t="str">
+        <v>2023-02-06T14:33:28.540Z</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Wireless Communications Networks</v>
+      </c>
+      <c r="B15" t="str">
+        <v>William Stallings</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2005</v>
+      </c>
+      <c r="D15">
+        <v>559</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <v>CH-00238</v>
+      </c>
+      <c r="I15" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L15" t="str">
+        <v>2023-02-06T14:33:28.540Z</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Modern Industrial Organization</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Dennis W. Carlton Jeffrey M. Perloff</v>
+      </c>
+      <c r="C16" t="str">
+        <v>2005</v>
+      </c>
+      <c r="D16">
+        <v>822</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <v>CH-00230</v>
+      </c>
+      <c r="I16" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L16" t="str">
+        <v>2023-02-06T14:33:28.539Z</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Educational Technology International</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Korean Society for Educational Technology</v>
+      </c>
+      <c r="C17" t="str">
+        <v>2020</v>
+      </c>
+      <c r="D17">
+        <v>247</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <v>CH-00218,CH-00219,CH-00220</v>
+      </c>
+      <c r="I17" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L17" t="str">
+        <v>2023-02-06T14:33:28.539Z</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>ENGINEERING MECHANICS</v>
+      </c>
+      <c r="B18" t="str">
+        <v>I.C.JONG , B.G.ROGERS</v>
+      </c>
+      <c r="C18" t="str">
+        <v>1991</v>
+      </c>
+      <c r="D18">
+        <v>450</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="str">
+        <v>CH-00271</v>
+      </c>
+      <c r="I18" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L18" t="str">
+        <v>2023-02-06T14:33:28.539Z</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Numerical Modelling of Material Deformation Processes</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Peter Hartley, Ian Pillinger Clive Sturgess</v>
+      </c>
+      <c r="C19" t="str">
+        <v>1992</v>
+      </c>
+      <c r="D19">
+        <v>460</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="str">
+        <v>CH-00232</v>
+      </c>
+      <c r="I19" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L19" t="str">
+        <v>2023-02-06T14:33:28.539Z</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>FUNDAMENTALS OF METAL FATIGUE ANALYSIS</v>
+      </c>
+      <c r="B20" t="str">
+        <v>JULIE A. BANNANTINE JESS J.C.JAMES L.HANDROCK</v>
+      </c>
+      <c r="C20" t="str">
+        <v>1990</v>
+      </c>
+      <c r="D20">
+        <v>273</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="str">
+        <v>CH-00280</v>
+      </c>
+      <c r="I20" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L20" t="str">
+        <v>2023-02-06T14:33:28.539Z</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Engineering Mechanics DYNAMICS</v>
+      </c>
+      <c r="B21" t="str">
+        <v>I.C.JONG , B.G.ROGERS</v>
+      </c>
+      <c r="C21" t="str">
+        <v>1991</v>
+      </c>
+      <c r="D21">
+        <v>934</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="str">
+        <v>CH-00275</v>
+      </c>
+      <c r="I21" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L21" t="str">
+        <v>2023-02-06T14:33:28.539Z</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>DISCOURSE STUDIES</v>
+      </c>
+      <c r="B22" t="str">
+        <v>TEUN A. VAN DIJK</v>
+      </c>
+      <c r="C22" t="str">
+        <v>2011</v>
+      </c>
+      <c r="D22">
+        <v>414</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="str">
+        <v>CH-00228</v>
+      </c>
+      <c r="I22" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L22" t="str">
+        <v>2023-02-06T14:33:28.538Z</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>FORMULAS FOR STRESS,STRAIN,AND STRUCTURAL MATRICES</v>
+      </c>
+      <c r="B23" t="str">
+        <v>WALTER D. PILKEY</v>
+      </c>
+      <c r="C23" t="str">
+        <v>1994</v>
+      </c>
+      <c r="D23">
+        <v>1458</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="str">
+        <v>CH-00246</v>
+      </c>
+      <c r="I23" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L23" t="str">
+        <v>2023-02-06T14:33:28.538Z</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>APPLIED NUMERICAL ANALYSIS</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Curtis F.Gerald O.Wheatley .1970.1978.1984 y.</v>
+      </c>
+      <c r="C24" t="str">
+        <v>1989</v>
+      </c>
+      <c r="D24">
+        <v>679</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="str">
+        <v>CH-00234</v>
+      </c>
+      <c r="I24" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L24" t="str">
+        <v>2023-02-06T14:33:28.538Z</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>TURBULENCE IN WORLD POLITICS</v>
+      </c>
+      <c r="B25" t="str">
+        <v>JAMES N. ROSENAU</v>
+      </c>
+      <c r="C25" t="str">
+        <v>1990</v>
+      </c>
+      <c r="D25">
+        <v>480</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="str">
+        <v>CH-00254</v>
+      </c>
+      <c r="I25" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L25" t="str">
+        <v>2023-02-06T14:33:28.538Z</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>PEACE AND WORLD ORDER STUDIES</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Daniel C.Thomas Michael T. Klare</v>
+      </c>
+      <c r="C26" t="str">
+        <v>1989</v>
+      </c>
+      <c r="D26">
+        <v>666</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="str">
+        <v>CH-00222</v>
+      </c>
+      <c r="I26" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L26" t="str">
+        <v>2023-02-06T14:33:28.538Z</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>The New World of Politics</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Neal Riemer Douglas W.Simon</v>
+      </c>
+      <c r="C27" t="str">
+        <v>1991</v>
+      </c>
+      <c r="D27">
+        <v>558</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="str">
+        <v>CH-00276</v>
+      </c>
+      <c r="I27" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L27" t="str">
+        <v>2023-02-06T14:33:28.538Z</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>STABILITY OF STRUCTURES</v>
+      </c>
+      <c r="B28" t="str">
+        <v>ZDENEK P. BAZANT LUIGI CEDOLIN</v>
+      </c>
+      <c r="C28" t="str">
+        <v>1991</v>
+      </c>
+      <c r="D28">
+        <v>984</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <v>CH-00258</v>
+      </c>
+      <c r="I28" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L28" t="str">
+        <v>2023-02-06T14:33:28.538Z</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>An Invitation to Reflexive Sociology</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Pierre Bourdieu.Loic J.D.Wacquant</v>
+      </c>
+      <c r="C29" t="str">
+        <v>1992</v>
+      </c>
+      <c r="D29">
+        <v>332</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="str">
+        <v>CH-00227</v>
+      </c>
+      <c r="I29" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L29" t="str">
+        <v>2023-02-06T14:33:28.537Z</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Recursive Methods in Economic Dynamics</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Nancy L. Stokey Robert E. Lucas,Jr</v>
+      </c>
+      <c r="C30" t="str">
+        <v>1989</v>
+      </c>
+      <c r="D30">
+        <v>588</v>
+      </c>
+      <c r="E30" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="str">
+        <v>CH-00264</v>
+      </c>
+      <c r="I30" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L30" t="str">
+        <v>2023-02-06T14:33:28.537Z</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Memes of Translation</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Andrew Chesterman</v>
+      </c>
+      <c r="C31" t="str">
+        <v>1997</v>
+      </c>
+      <c r="D31">
+        <v>219</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="str">
+        <v>CH-00237</v>
+      </c>
+      <c r="I31" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L31" t="str">
+        <v>2023-02-06T14:33:28.537Z</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>DILEMMAS OF WORLD POLITICS</v>
+      </c>
+      <c r="B32" t="str">
+        <v>JOHN BAYLIS .N.J.RENGGER</v>
+      </c>
+      <c r="C32" t="str">
+        <v>1992</v>
+      </c>
+      <c r="D32">
+        <v>438</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <v>CH-00235</v>
+      </c>
+      <c r="I32" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L32" t="str">
+        <v>2023-02-06T14:33:28.537Z</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>STRUCTURAL STABILITY THEORY AND IMPLEMENTATION</v>
+      </c>
+      <c r="B33" t="str">
+        <v>W.F.Chen. E.M.Lui -</v>
+      </c>
+      <c r="C33" t="str">
+        <v>1987</v>
+      </c>
+      <c r="D33">
+        <v>490</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="str">
+        <v>CH-00225</v>
+      </c>
+      <c r="I33" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L33" t="str">
+        <v>2023-02-06T14:33:28.537Z</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>CHINAS ENVIRONMENTAL CRISIS</v>
+      </c>
+      <c r="B34" t="str">
+        <v>VACLAV SMIL</v>
+      </c>
+      <c r="C34" t="str">
+        <v>1993</v>
+      </c>
+      <c r="D34">
+        <v>257</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <v>CH-00236</v>
+      </c>
+      <c r="I34" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L34" t="str">
+        <v>2023-02-06T14:33:28.537Z</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>KARL MARX Selected Writings</v>
+      </c>
+      <c r="B35" t="str">
+        <v>David McLellan</v>
+      </c>
+      <c r="C35" t="str">
+        <v>1977</v>
+      </c>
+      <c r="D35">
+        <v>625</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="str">
+        <v>CH-00244</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L35" t="str">
+        <v>2023-02-06T14:33:28.537Z</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Mechanics of Laminated Composite Plates</v>
+      </c>
+      <c r="B36" t="str">
+        <v>J.N.REDDY</v>
+      </c>
+      <c r="C36" t="str">
+        <v>1997</v>
+      </c>
+      <c r="D36">
+        <v>782</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="str">
+        <v>CH-00262</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L36" t="str">
+        <v>2023-02-06T14:33:28.536Z</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>STRUCTURAL STABILITY DESIGN</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Yuhshi Fukumoto</v>
+      </c>
+      <c r="C37" t="str">
+        <v>1997</v>
+      </c>
+      <c r="D37">
+        <v>422</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <v>CH-00267</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L37" t="str">
+        <v>2023-02-06T14:33:28.536Z</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>MECHANICS OF COMPOSITE MATERIALS</v>
+      </c>
+      <c r="B38" t="str">
+        <v>ROBERT M. JONES</v>
+      </c>
+      <c r="C38" t="str">
+        <v>1975</v>
+      </c>
+      <c r="D38">
+        <v>355</v>
+      </c>
+      <c r="E38" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="str">
+        <v>CH-01658</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L38" t="str">
+        <v>2023-02-06T14:33:28.536Z</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>EARTHQUAKE ENGINEERING</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Yousef Bozorgnia Vitelmo V. Bertero</v>
+      </c>
+      <c r="C39" t="str">
+        <v>2004</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <v>CH-00266</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L39" t="str">
+        <v>2023-02-06T14:33:28.536Z</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>STRUKTURAL DETAILING IN CONCRETE</v>
+      </c>
+      <c r="B40" t="str">
+        <v>M.Y.H Bangash</v>
+      </c>
+      <c r="C40" t="str">
+        <v>2003</v>
+      </c>
+      <c r="D40">
+        <v>457</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="str">
+        <v>CH-00221</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L40" t="str">
+        <v>2023-02-06T14:33:28.536Z</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>bridgescape. The Art of Designing Bridges</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Frederick Gottemoeller</v>
+      </c>
+      <c r="C41" t="str">
+        <v>1998</v>
+      </c>
+      <c r="D41">
+        <v>276</v>
+      </c>
+      <c r="E41" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="str">
+        <v>CH-00279</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L41" t="str">
+        <v>2023-02-06T14:33:28.536Z</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>FREEDOMNOMICS WHY THE FREE MARKET WORKS AND OTHER HALF-BAKED THEORIES DON `T</v>
+      </c>
+      <c r="B42" t="str">
+        <v>JOHN R. LOTT,JR.,PH.D</v>
+      </c>
+      <c r="C42" t="str">
+        <v>2007</v>
+      </c>
+      <c r="D42">
+        <v>275</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="str">
+        <v>CH-00277</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L42" t="str">
+        <v>2023-02-06T14:33:28.536Z</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>THE EVOLUTION OF NUCLEAR STRATEGY</v>
+      </c>
+      <c r="B43" t="str">
+        <v>LAWRENCE FREEDMAN</v>
+      </c>
+      <c r="C43" t="str">
+        <v>1983</v>
+      </c>
+      <c r="D43">
+        <v>473</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <v>CH-00226</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L43" t="str">
+        <v>2023-02-06T14:33:28.536Z</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>PRINCIPLES OF COMPOSITE MATERIAL MECHANICS</v>
+      </c>
+      <c r="B44" t="str">
+        <v>RONALD F. GIBSON</v>
+      </c>
+      <c r="C44" t="str">
+        <v>1994</v>
+      </c>
+      <c r="D44">
+        <v>425</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <v>CH-00269</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L44" t="str">
+        <v>2023-02-06T14:33:28.535Z</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>GUIDE TO STABILITY DESIGN CRITERIA FOR METAL STRUCTURES</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Theodore V.Galambos (1976 y)</v>
+      </c>
+      <c r="C45" t="str">
+        <v>1988</v>
+      </c>
+      <c r="D45">
+        <v>786</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="str">
+        <v>CH-00257</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L45" t="str">
+        <v>2023-02-06T14:33:28.535Z</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Practical Analysis of COMPOSITE LAMINATES</v>
+      </c>
+      <c r="B46" t="str">
+        <v>J.N.REDDY A.Miravete</v>
+      </c>
+      <c r="C46" t="str">
+        <v>1995</v>
+      </c>
+      <c r="D46">
+        <v>317</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="str">
+        <v>CH-01656</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L46" t="str">
+        <v>2023-02-06T14:33:28.535Z</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>QUALITY HANDBOOK for COMPOSITE MATERIALS</v>
+      </c>
+      <c r="B47" t="str">
+        <v>M.H.Geier</v>
+      </c>
+      <c r="C47" t="str">
+        <v>1994</v>
+      </c>
+      <c r="D47">
+        <v>278</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="str">
+        <v>CH-00272</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L47" t="str">
+        <v>2023-02-06T14:33:28.535Z</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>BUCKLING AND POSTBUCKLING OF COMPOSITE PLATES EDITED BY</v>
+      </c>
+      <c r="B48" t="str">
+        <v>-</v>
+      </c>
+      <c r="C48" t="str">
+        <v>1995</v>
+      </c>
+      <c r="D48">
+        <v>396</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="str">
+        <v>CH-00259</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L48" t="str">
+        <v>2023-02-06T14:33:28.535Z</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>ADVANCED COMPOSITES MATERIALS IN CIVIL ENGINEERING STRUCTURES</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Srinivasa l . Iyer Rajan Sen</v>
+      </c>
+      <c r="C49" t="str">
+        <v>1991</v>
+      </c>
+      <c r="D49">
+        <v>439</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="str">
+        <v>CH-00229</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L49" t="str">
+        <v>2023-02-06T14:33:28.535Z</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>NON-LINEAR DYNAMIC PROBLEMS FOR COMPOSITE CYLINDRICAL SHELLS</v>
+      </c>
+      <c r="B50" t="str">
+        <v>ALEXANDER BOGDANOVICH</v>
+      </c>
+      <c r="C50" t="str">
+        <v>1991</v>
+      </c>
+      <c r="D50">
+        <v>295</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <v>CH-00281</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L50" t="str">
+        <v>2023-02-06T14:33:28.535Z</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>HIGHWAY BRIDGES</v>
+      </c>
+      <c r="B51" t="str">
+        <v>RICHARD M. BARKE JAY A. PUCKETT</v>
+      </c>
+      <c r="C51" t="str">
+        <v>1997</v>
+      </c>
+      <c r="D51">
+        <v>1169</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="str">
+        <v>CH-00243</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L51" t="str">
+        <v>2023-02-06T14:33:28.534Z</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>REINFORCED CONCRETE</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Edward G. Nawy P.E</v>
+      </c>
+      <c r="C52" t="str">
+        <v>2000</v>
+      </c>
+      <c r="D52">
+        <v>777</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="str">
+        <v>CH-00252</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L52" t="str">
+        <v>2023-02-06T14:33:28.534Z</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>CONCRETE STRUCTURES CONCRETE BRIDGES ASSESSMENT RENOVATION OF CONCRETE STRUCTURES</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Denison Campbell-Allen. Harold Roper</v>
+      </c>
+      <c r="C53" t="str">
+        <v>1991</v>
+      </c>
+      <c r="D53">
+        <v>224</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="str">
+        <v>CH-00263</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L53" t="str">
+        <v>2023-02-06T14:33:28.534Z</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>ADVANCED ENGINEERING MATHEMATICS</v>
+      </c>
+      <c r="B54" t="str">
+        <v>ERWIN KREYSZIG</v>
+      </c>
+      <c r="C54" t="str">
+        <v>1997</v>
+      </c>
+      <c r="D54">
+        <v>1156</v>
+      </c>
+      <c r="E54" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="str">
+        <v>CH-00239</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L54" t="str">
+        <v>2023-02-06T14:33:28.534Z</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>STRESSES IN PLATES AND SHELLS</v>
+      </c>
+      <c r="B55" t="str">
+        <v>A.C.UGURAL</v>
+      </c>
+      <c r="C55" t="str">
+        <v>1981</v>
+      </c>
+      <c r="D55">
+        <v>317</v>
+      </c>
+      <c r="E55" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="str">
+        <v>CH-00224</v>
+      </c>
+      <c r="I55" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L55" t="str">
+        <v>2023-02-06T14:33:28.534Z</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>ENERGY AND VARIATIONAL METHODS IN APPLIED MECHANICS</v>
+      </c>
+      <c r="B56" t="str">
+        <v>J.N.REDDY</v>
+      </c>
+      <c r="C56" t="str">
+        <v>1992</v>
+      </c>
+      <c r="D56">
+        <v>545</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="str">
+        <v>CH-00223</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L56" t="str">
+        <v>2023-02-06T14:33:28.534Z</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>REINFORCED MASONRY DESIGN</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Robert R.SchneideWaiter L.Dickey</v>
+      </c>
+      <c r="C57" t="str">
+        <v>1980</v>
+      </c>
+      <c r="D57">
+        <v>619</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="str">
+        <v>CH-00285</v>
+      </c>
+      <c r="I57" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L57" t="str">
+        <v>2023-02-06T14:33:28.533Z</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>THE GLOBAL POLITICAL ECONOMY</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Stephen Gill, David Lav</v>
+      </c>
+      <c r="C58" t="str">
+        <v>1988</v>
+      </c>
+      <c r="D58">
+        <v>394</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="str">
+        <v>CH-00253</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L58" t="str">
+        <v>2023-02-06T14:33:28.533Z</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>World Politics Trend and Transformation</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Charles W. Kegley Jr.Shannon L.</v>
+      </c>
+      <c r="C59" t="str">
+        <v>2013</v>
+      </c>
+      <c r="D59">
+        <v>583</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="str">
+        <v>CH-00240</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L59" t="str">
+        <v>2023-02-06T14:33:28.533Z</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>nternational Handbook of Earthquake Engineering</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Mario Paz</v>
+      </c>
+      <c r="C60" t="str">
+        <v>1994</v>
+      </c>
+      <c r="D60">
+        <v>545</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="str">
+        <v>CH-00260</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L60" t="str">
+        <v>2023-02-06T14:33:28.533Z</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Principles of Economics</v>
+      </c>
+      <c r="B61" t="str">
+        <v>N.Gregory Mankiw</v>
+      </c>
+      <c r="C61" t="str">
+        <v>2007</v>
+      </c>
+      <c r="D61">
+        <v>896</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <v>CH-00278</v>
+      </c>
+      <c r="I61" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L61" t="str">
+        <v>2023-02-06T14:33:28.533Z</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>The Behavior of Shells Composed of Isotropic and Composite Materials</v>
+      </c>
+      <c r="B62" t="str">
+        <v>JACK R. VINSON</v>
+      </c>
+      <c r="C62" t="str">
+        <v>1993</v>
+      </c>
+      <c r="D62">
+        <v>545</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="str">
+        <v>CH-00245</v>
+      </c>
+      <c r="I62" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L62" t="str">
+        <v>2023-02-06T14:33:28.533Z</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>HOW TO THINK LIKE A COMPUTER SCIENTIST (IT)</v>
+      </c>
+      <c r="B63" t="str">
+        <v>THOMAS SCHEFFLER</v>
+      </c>
+      <c r="C63" t="str">
+        <v>2019</v>
+      </c>
+      <c r="D63">
+        <v>122</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="str">
+        <v>CH-00100,CH-00101,CH-00102,CH-00103,CH-00104,CH-00105,CH-00106,CH-00107,CH-00108</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L63" t="str">
+        <v>2023-02-06T14:33:28.532Z</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>AC ELECTRICAL CIRCUIT ANALYSIS (IT)</v>
+      </c>
+      <c r="B64" t="str">
+        <v>JAMES M.FIORE</v>
+      </c>
+      <c r="C64" t="str">
+        <v>2020</v>
+      </c>
+      <c r="D64">
+        <v>422</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <v>CH-00184,CH-00185,CH-00186,CH-00187,CH-00188,CH-00189,CH-00190,CH-00191,CH-00192,CH-00193</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L64" t="str">
+        <v>2023-02-06T14:33:28.532Z</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Stress stability and chaos</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Kiritilmagan</v>
+      </c>
+      <c r="C65" t="str">
+        <v>1990</v>
+      </c>
+      <c r="D65">
+        <v>721</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="str">
+        <v>CH-00231</v>
+      </c>
+      <c r="I65" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L65" t="str">
+        <v>2023-02-06T14:33:28.532Z</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Innovations in Fiber-Reinforced Concrete for Value</v>
+      </c>
+      <c r="B66" t="str">
+        <v>N.Banthia,M.Criswell,P.Tatnall, …</v>
+      </c>
+      <c r="C66" t="str">
+        <v>2003</v>
+      </c>
+      <c r="D66">
+        <v>240</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="str">
+        <v>CH-00217</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L66" t="str">
+        <v>2023-02-06T14:33:28.532Z</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>REINFORCED CONCRETE PART-1</v>
+      </c>
+      <c r="B67" t="str">
+        <v>EDWARD G.NAWY</v>
+      </c>
+      <c r="C67" t="str">
+        <v>2000</v>
+      </c>
+      <c r="D67">
+        <v>448</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="str">
+        <v>CH-00134,CH-00135,CH-00136,CH-00137,CH-00138,CH-00139,CH-00140,CH-00141,CH-00142,CH-00143</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L67" t="str">
+        <v>2023-02-06T14:33:28.531Z</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>REINFORCED CONCRETE PART-2</v>
+      </c>
+      <c r="B68" t="str">
+        <v>EDWARD G.NAWY</v>
+      </c>
+      <c r="C68" t="str">
+        <v>2000</v>
+      </c>
+      <c r="D68">
+        <v>914</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="str">
+        <v>CH-00144,CH-00145,CH-00146,CH-00147,CH-00148,CH-00149,CH-00150,CH-00151,CH-00152,CH-00153</v>
+      </c>
+      <c r="I68" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L68" t="str">
+        <v>2023-02-06T14:33:28.531Z</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>HOW TO THINK LIKE A COMPUTER SCIENTIST (IT) Python</v>
+      </c>
+      <c r="B69" t="str">
+        <v>THINK PYTHON</v>
+      </c>
+      <c r="C69" t="str">
+        <v>2015</v>
+      </c>
+      <c r="D69">
+        <v>222</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <v>CH-00109,CH-00110,CH-00111,CH-00112,CH-00113,CH-00114</v>
+      </c>
+      <c r="I69" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L69" t="str">
+        <v>2023-02-06T14:33:28.531Z</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>OPERATIVE DESIGN</v>
+      </c>
+      <c r="B70" t="str">
+        <v>ANTONY DI MARI</v>
+      </c>
+      <c r="C70" t="str">
+        <v>2021</v>
+      </c>
+      <c r="D70">
+        <v>150</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="str">
+        <v>CH-00124,CH-00125,CH-00126,CH-00127,CH-00128,CH-00129,CH-00130,CH-00131,CH-00132,CH-00133,СР01682</v>
+      </c>
+      <c r="I70" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L70" t="str">
+        <v>2023-02-06T14:33:28.531Z</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>UNIVERSITY PHYSICS PART-2</v>
+      </c>
+      <c r="B71" t="str">
+        <v>VOL.1</v>
+      </c>
+      <c r="C71" t="str">
+        <v>2000</v>
+      </c>
+      <c r="D71">
+        <v>988</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="str">
+        <v>CH-00194,CH-00195,CH-00196,CH-00197,CH-00198,CH-00199,CH-00200,CH-00201,CH-00202,CH-00203</v>
+      </c>
+      <c r="I71" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L71" t="str">
+        <v>2023-02-06T14:33:28.530Z</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>UNIVERSITY PHYSICS PART-1</v>
+      </c>
+      <c r="B72" t="str">
+        <v>VOL.1</v>
+      </c>
+      <c r="C72" t="str">
+        <v>2000</v>
+      </c>
+      <c r="D72">
+        <v>470</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="str">
+        <v>CH-00204,CH-00205,CH-00206,CH-00207,CH-00208,CH-00209,CH-00210,CH-00211,CH-00212,CH-00213</v>
+      </c>
+      <c r="I72" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L72" t="str">
+        <v>2023-02-06T14:33:28.530Z</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>FUNDAMENTALS OF FLUID MECHANICS PART-1 (C)</v>
+      </c>
+      <c r="B73" t="str">
+        <v>MUNSON R.B</v>
+      </c>
+      <c r="C73" t="str">
+        <v>2000</v>
+      </c>
+      <c r="D73">
+        <v>399</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="str">
+        <v>CH-00164,CH-00165,CH-00166,CH-00167,CH-00168,CH-00169,CH-00170,CH-00171,CH-00172,CH-00173</v>
+      </c>
+      <c r="I73" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L73" t="str">
+        <v>2023-02-06T14:33:28.530Z</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>FUNDAMENTALS OF FLUID MECHANICS PART-2 (C)</v>
+      </c>
+      <c r="B74" t="str">
+        <v>MUNSON R.B</v>
+      </c>
+      <c r="C74" t="str">
+        <v>2000</v>
+      </c>
+      <c r="D74">
+        <v>747</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <v>CH-00174,CH-00175,CH-00176,CH-00177,CH-00178,CH-00179,CH-00180,CH-00181,CH-00182,CH-00183</v>
+      </c>
+      <c r="I74" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L74" t="str">
+        <v>2023-02-06T14:33:28.530Z</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>SPACES IN ARCHITECTURE (A)</v>
+      </c>
+      <c r="B75" t="str">
+        <v>MUNSON R.B</v>
+      </c>
+      <c r="C75" t="str">
+        <v>2015</v>
+      </c>
+      <c r="D75">
+        <v>163</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="str">
+        <v>CH-00154,CH-00155,CH-00156,CH-00157,CH-00158,CH-00159,CH-00160,CH-00161,CH-00162,CH-00163</v>
+      </c>
+      <c r="I75" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L75" t="str">
+        <v>2023-02-06T14:33:28.530Z</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>ECONOMICS PART-1</v>
+      </c>
+      <c r="B76" t="str">
+        <v>N.GREGORY MANKIW</v>
+      </c>
+      <c r="C76" t="str">
+        <v>2016</v>
+      </c>
+      <c r="D76">
+        <v>399</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="str">
+        <v>CH-00071,CH-00072,CH-00073,CH-00074,CH-00075,CH-00076,CH-00077,CH-00078,CH-00079,CH-00080</v>
+      </c>
+      <c r="I76" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L76" t="str">
+        <v>2023-02-06T14:33:28.529Z</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>ECONOMICS PART-2 (C)</v>
+      </c>
+      <c r="B77" t="str">
+        <v>N.GREGORY MANKIW</v>
+      </c>
+      <c r="C77" t="str">
+        <v>2016</v>
+      </c>
+      <c r="D77">
+        <v>836</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="str">
+        <v>CH-00081,CH-00082,CH-00083,CH-00084,CH-00085,CH-00086,CH-00087,CH-00088,CH-00089,CH-00090</v>
+      </c>
+      <c r="I77" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L77" t="str">
+        <v>2023-02-06T14:33:28.529Z</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>AN INTRODUCTION TO PHILOSOPHICAL ANALYSIS</v>
+      </c>
+      <c r="B78" t="str">
+        <v>JOHN HOSPERS</v>
+      </c>
+      <c r="C78" t="str">
+        <v>4ED</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="str">
+        <v>CH-00061,CH-00062,CH-00063,CH-00064,CH-00065,CH-00066,CH-00067,CH-00068,CH-00069,CH-00070</v>
+      </c>
+      <c r="I78" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L78" t="str">
+        <v>2023-02-06T14:33:28.528Z</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>THE HISTORY OF WESTERN PHILOSOPHY PART-1</v>
+      </c>
+      <c r="B79" t="str">
+        <v>BERTRAND RUSSELL</v>
+      </c>
+      <c r="C79" t="str">
+        <v>2000</v>
+      </c>
+      <c r="D79">
+        <v>475</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="str">
+        <v>CH-00091,CH-00092,CH-00093,CH-00094,CH-00095,CH-00096,CH-00097,CH-00098,CH-00099,CH-00214</v>
+      </c>
+      <c r="I79" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L79" t="str">
+        <v>2023-02-06T14:33:28.528Z</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>PHYSICS FOR SCIENTISTS AND ENGINEERS PART 1</v>
+      </c>
+      <c r="B80" t="str">
+        <v>SERWAY JEWETT</v>
+      </c>
+      <c r="C80" t="str">
+        <v>9ED</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="str">
+        <v>CH-00031,CH-00032,CH-00033,CH-00034,CH-00035,CH-00036,CH-00037,CH-00038,CH-00039,CH-00040</v>
+      </c>
+      <c r="I80" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L80" t="str">
+        <v>2023-02-06T14:33:28.527Z</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>PHYSICS FOR SCIENTISTS AND ENGINEERS PART 2</v>
+      </c>
+      <c r="B81" t="str">
+        <v>SERWAY JEWETT</v>
+      </c>
+      <c r="C81" t="str">
+        <v>9ED</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="str">
+        <v>CH-00041,CH-00042,CH-00043,CH-00044,CH-00045,CH-00046,CH-00047,CH-00048,CH-00049,CH-00050</v>
+      </c>
+      <c r="I81" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L81" t="str">
+        <v>2023-02-06T14:33:28.527Z</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>PHYSICS FOR SCIENTISTS AND ENGINEERS PART 3</v>
+      </c>
+      <c r="B82" t="str">
+        <v>SERWAY JEWETT</v>
+      </c>
+      <c r="C82" t="str">
+        <v>9ED</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="str">
+        <v>CH-00051,CH-00052,CH-00053,CH-00054,CH-00055,CH-00056,CH-00057,CH-00058,CH-00059,CH-00060</v>
+      </c>
+      <c r="I82" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L82" t="str">
+        <v>2023-02-06T14:33:28.527Z</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>ADVANCED ENGINEERING MATHEMATICS PART 1</v>
+      </c>
+      <c r="B83" t="str">
+        <v>ERWIN KREYSZIG</v>
+      </c>
+      <c r="C83" t="str">
+        <v>10ED</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="str">
+        <v>CH-00011,CH-00012,CH-00013,CH-00014,CH-00015,CH-00016,CH-0001,CH-000247,CH-00018,CH-00019,CH-00020,CH-00021,CH-00022,CH-00023,CH-00029,CH-00030</v>
+      </c>
+      <c r="I83" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L83" t="str">
+        <v>2023-02-06T14:33:28.526Z</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>ENGINEERING MECHANICS STATICS (C)</v>
+      </c>
+      <c r="B84" t="str">
+        <v>J.L.MERIAM</v>
+      </c>
+      <c r="C84" t="str">
+        <v>6ED</v>
+      </c>
+      <c r="E84" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" t="str">
+        <v>СH-00001,СH-00002,СH-00003,СH-00004,СH-00005,СH-00006,СH-00007,СH-00008,СH-00009,СH-00010</v>
+      </c>
+      <c r="I84" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L84" t="str">
+        <v>2023-02-06T14:33:28.526Z</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>ARCHITECTURAL DRAWING COURSE ( A)</v>
+      </c>
+      <c r="B85" t="str">
+        <v>MO ZELL -</v>
+      </c>
+      <c r="C85" t="str">
+        <v>2008</v>
+      </c>
+      <c r="D85">
+        <v>144</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Ingliz</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" t="str">
+        <v>CH-00115,CH-00116,CH-00117,CH-00118,CH-00119,CH-00120,CH-00121,CH-00122,CH-00123,CH-01680</v>
+      </c>
+      <c r="I85" t="str">
+        <v>Ajou</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="str">
+        <v>aniqlanmagan</v>
+      </c>
+      <c r="L85" t="str">
+        <v>2023-02-06T14:33:28.524Z</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Martin Iden</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Jek London</v>
+      </c>
+      <c r="C86" t="str">
+        <v>2021</v>
+      </c>
+      <c r="D86">
+        <v>480</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Badiiy</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" t="str">
+        <v>B-00026,B-00025,B-00024,B-00023</v>
+      </c>
+      <c r="H86" t="str">
+        <v>a13b20c30</v>
+      </c>
+      <c r="I86" t="str">
+        <v>Ajou universiteti</v>
+      </c>
+      <c r="J86">
+        <v>20000</v>
+      </c>
+      <c r="K86" t="str">
+        <v>uzbek</v>
+      </c>
+      <c r="L86" t="str">
+        <v>2023-02-06T10:58:39.363Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M86"/>
   </ignoredErrors>
 </worksheet>
 </file>